--- a/files/community_growth.xlsx
+++ b/files/community_growth.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88DD646-A245-4988-BADB-2FBEF2E1B070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413DB870-1075-45FA-8C84-F1F64D36899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="-15765" windowWidth="21600" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>Slicer Headings</t>
   </si>
   <si>
-    <t>Overview - Digital Properties - CHILE</t>
-  </si>
-  <si>
     <t>TOTAL MONTHLY UNIQUE VISITORS</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>Property 4</t>
+  </si>
+  <si>
+    <t>Overview - Digital Properties</t>
   </si>
 </sst>
 </file>
@@ -340,6 +340,45 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -365,52 +404,13 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -806,7 +806,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1563</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1695</c:v>
@@ -2151,8 +2151,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7203281" y="3238500"/>
-          <a:ext cx="7397248" cy="3708191"/>
+          <a:off x="7207091" y="3255169"/>
+          <a:ext cx="7390104" cy="3797726"/>
           <a:chOff x="7274719" y="3243262"/>
           <a:chExt cx="7390104" cy="3793916"/>
         </a:xfrm>
@@ -2283,7 +2283,7 @@
                   <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:pPr/>
-                <a:t> 428,238 </a:t>
+                <a:t> 428,675 </a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="5400" baseline="0">
                 <a:solidFill>
@@ -2526,56 +2526,6 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>726280</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>618174</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>49817</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13227843" y="71438"/>
-          <a:ext cx="975362" cy="728473"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2600,16 +2550,16 @@
   <autoFilter ref="B10:G23" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="5">
       <filters>
-        <filter val="04 - April"/>
+        <filter val="07 - July"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Month" totalsRowLabel="Total" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Property 1" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Property 2" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Property 3" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Property 4" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Month" totalsRowLabel="Total" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Property 1" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Property 2" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Property 3" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Property 4" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="1"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Slicer Headings" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="DataViz App" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2849,8 +2799,8 @@
   </sheetPr>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.8" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -2875,7 +2825,7 @@
   <sheetData>
     <row r="1" spans="2:17" ht="59.25" customHeight="1" x14ac:dyDescent="1.3">
       <c r="B1" s="17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -2914,7 +2864,7 @@
     <row r="3" spans="2:17" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:17" ht="48" customHeight="1" x14ac:dyDescent="0.8">
       <c r="J4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
@@ -2995,7 +2945,7 @@
   <dimension ref="B1:G28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F11" sqref="C11:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -3009,50 +2959,50 @@
   <sheetData>
     <row r="1" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="15">
         <f>Table1[[#Totals],[Property 1]]</f>
-        <v>4178</v>
+        <v>15128</v>
       </c>
       <c r="E3" s="14"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="15">
         <f>Table1[[#Totals],[Property 2]]</f>
-        <v>9461</v>
+        <v>9281</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="15">
         <f>Table1[[#Totals],[Property 3]]</f>
-        <v>582</v>
+        <v>961</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="15">
         <f>Table1[[#Totals],[Property 4]]</f>
-        <v>977</v>
+        <v>28548</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -3064,16 +3014,16 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>26</v>
@@ -3084,7 +3034,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="8">
-        <v>1563</v>
+        <v>2000</v>
       </c>
       <c r="D11" s="8">
         <v>12416</v>
@@ -3139,7 +3089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
         <v>1</v>
       </c>
@@ -3219,7 +3169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
@@ -3345,29 +3295,29 @@
       </c>
       <c r="C24" s="7">
         <f>SUBTOTAL(109,Table1[Property 1])</f>
-        <v>4178</v>
+        <v>15128</v>
       </c>
       <c r="D24" s="7">
         <f>SUBTOTAL(109,Table1[Property 2])</f>
-        <v>9461</v>
+        <v>9281</v>
       </c>
       <c r="E24" s="7">
         <f>SUBTOTAL(109,Table1[Property 3])</f>
-        <v>582</v>
+        <v>961</v>
       </c>
       <c r="F24" s="7">
         <f>SUBTOTAL(109,Table1[Property 4])</f>
-        <v>977</v>
+        <v>28548</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="27" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" s="19">
         <f>SUM(Table1[[Property 1]:[Property 4]])</f>
-        <v>428238</v>
+        <v>428675</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
